--- a/archive/data/leetcode.xlsx
+++ b/archive/data/leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lingbozh/Desktop/Github/lingbozhang.github.io/archive/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BF7650-F829-9447-858B-95DB13512565}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B2EC8E-C2EF-B84D-A6B0-9829355CF5FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="2920" windowWidth="28040" windowHeight="17440" xr2:uid="{E8FB57C8-E8ED-A54A-8AA4-AA4FFB695502}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="20260" xr2:uid="{E8FB57C8-E8ED-A54A-8AA4-AA4FFB695502}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>Time limit exceeded</t>
+  </si>
+  <si>
+    <t>21min</t>
+  </si>
+  <si>
+    <t>understanding the definition of duplication</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>if want to change variable inside datastructure use inference, punctuation</t>
   </si>
 </sst>
 </file>
@@ -457,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909C8600-F738-5146-AEB4-CC849DC044B9}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,6 +734,63 @@
         <v>22</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43487</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>253</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43487</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>723</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3">
+        <v>43487</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/archive/data/leetcode.xlsx
+++ b/archive/data/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lingbozh/Desktop/Github/lingbozhang.github.io/archive/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B2EC8E-C2EF-B84D-A6B0-9829355CF5FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB112DDA-29B7-C446-9B6D-4A70E91C640B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="20260" xr2:uid="{E8FB57C8-E8ED-A54A-8AA4-AA4FFB695502}"/>
+    <workbookView xWindow="18380" yWindow="4240" windowWidth="19200" windowHeight="20260" xr2:uid="{E8FB57C8-E8ED-A54A-8AA4-AA4FFB695502}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -105,7 +105,19 @@
     <t>10min</t>
   </si>
   <si>
-    <t>if want to change variable inside datastructure use inference, punctuation</t>
+    <t>9min</t>
+  </si>
+  <si>
+    <t>modified binary search</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>if condition is not well defined</t>
+  </si>
+  <si>
+    <t>if want to change variable inside datastructure use inference; punctuation</t>
   </si>
 </sst>
 </file>
@@ -469,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909C8600-F738-5146-AEB4-CC849DC044B9}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,7 +783,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -789,6 +801,63 @@
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>238</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43489</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3">
+        <v>43489</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>939</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43489</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/archive/data/leetcode.xlsx
+++ b/archive/data/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lingbozh/Desktop/Github/lingbozhang.github.io/archive/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB112DDA-29B7-C446-9B6D-4A70E91C640B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1806DA1E-C531-E947-BFFC-7C63F7217DD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18380" yWindow="4240" windowWidth="19200" windowHeight="20260" xr2:uid="{E8FB57C8-E8ED-A54A-8AA4-AA4FFB695502}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="20080" xr2:uid="{E8FB57C8-E8ED-A54A-8AA4-AA4FFB695502}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>if want to change variable inside datastructure use inference; punctuation</t>
+  </si>
+  <si>
+    <t>11min</t>
+  </si>
+  <si>
+    <t>type should be consistent; initialization map with {{}}</t>
+  </si>
+  <si>
+    <t>weird error</t>
   </si>
 </sst>
 </file>
@@ -481,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909C8600-F738-5146-AEB4-CC849DC044B9}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -860,6 +869,63 @@
         <v>29</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>43502</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>43502</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>909</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3">
+        <v>43502</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/archive/data/leetcode.xlsx
+++ b/archive/data/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lingbozh/Desktop/Github/lingbozhang.github.io/archive/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1806DA1E-C531-E947-BFFC-7C63F7217DD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87070C03-FAA4-7A43-ABA2-4069156451E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="20080" xr2:uid="{E8FB57C8-E8ED-A54A-8AA4-AA4FFB695502}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{E8FB57C8-E8ED-A54A-8AA4-AA4FFB695502}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
   <si>
     <t>#</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>weird error</t>
+  </si>
+  <si>
+    <t>heap-buffer-overflow</t>
+  </si>
+  <si>
+    <t>edge case; remember prev pointer</t>
   </si>
 </sst>
 </file>
@@ -490,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909C8600-F738-5146-AEB4-CC849DC044B9}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,6 +932,61 @@
         <v>33</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3">
+        <v>43503</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>322</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3">
+        <v>43503</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>430</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/archive/data/leetcode.xlsx
+++ b/archive/data/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lingbozh/Desktop/Github/lingbozhang.github.io/archive/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87070C03-FAA4-7A43-ABA2-4069156451E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C605BC9D-21CF-C94C-B28E-18813B89CC1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{E8FB57C8-E8ED-A54A-8AA4-AA4FFB695502}"/>
+    <workbookView xWindow="2400" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{E8FB57C8-E8ED-A54A-8AA4-AA4FFB695502}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
   <si>
     <t>#</t>
   </si>
@@ -133,6 +133,45 @@
   </si>
   <si>
     <t>edge case; remember prev pointer</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>union find</t>
+  </si>
+  <si>
+    <t>23min</t>
+  </si>
+  <si>
+    <t>warn: correctly calculate string index</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>edge case: all negtive in array</t>
+  </si>
+  <si>
+    <t>18min</t>
+  </si>
+  <si>
+    <t>condition; if integer, check overflow</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>think in other direction</t>
+  </si>
+  <si>
+    <t>5min</t>
+  </si>
+  <si>
+    <t>12min</t>
+  </si>
+  <si>
+    <t>permute</t>
   </si>
 </sst>
 </file>
@@ -175,13 +214,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909C8600-F738-5146-AEB4-CC849DC044B9}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,461 +596,718 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>43479</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>200</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
         <v>43479</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>755</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6">
         <v>43479</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>43480</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>904</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8">
         <v>43480</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="7">
         <v>923</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8">
         <v>43480</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>43482</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8">
         <v>43482</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="9">
         <v>635</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <v>43482</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="9">
         <v>138</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9">
         <v>3</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="10">
         <v>43483</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="9">
         <v>56</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="6">
         <v>43483</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="7">
         <v>947</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="B13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8">
         <v>43483</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="9">
         <v>15</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5">
         <v>3</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="6">
         <v>43487</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="9">
         <v>253</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5">
         <v>4</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="6">
         <v>43487</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="7">
         <v>723</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8">
         <v>43487</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="9">
         <v>238</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="6">
         <v>43489</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="7">
         <v>33</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="B18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="8">
         <v>43489</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="9">
         <v>939</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="6">
         <v>43489</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="9">
         <v>22</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="9">
         <v>1</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="10">
         <v>43502</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="9">
         <v>17</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="9">
         <v>1</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="10">
         <v>43502</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="7">
         <v>909</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="8">
         <v>43502</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="E22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="7">
         <v>31</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="B23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="8">
         <v>43503</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="E23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="7">
         <v>322</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="8">
         <v>43503</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="E24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="9">
         <v>430</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="9">
         <v>3</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="10">
+        <v>43503</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="13" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>681</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43505</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>399</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43505</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>139</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>43505</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>393</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="14">
+        <v>43506</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>621</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="14">
+        <v>43506</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>918</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="4">
+        <v>43506</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>91</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5</v>
+      </c>
+      <c r="D32" s="4">
+        <v>43507</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>236</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="14">
+        <v>43507</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>767</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="14">
+        <v>43507</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>49</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>43509</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>380</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43509</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>782</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1">
+        <v>43511</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>46</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43511</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/archive/data/leetcode.xlsx
+++ b/archive/data/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lingbozh/Desktop/Github/lingbozhang.github.io/archive/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C605BC9D-21CF-C94C-B28E-18813B89CC1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FC5E6C-AD16-8645-8197-04A109322B7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{E8FB57C8-E8ED-A54A-8AA4-AA4FFB695502}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{E8FB57C8-E8ED-A54A-8AA4-AA4FFB695502}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909C8600-F738-5146-AEB4-CC849DC044B9}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
